--- a/ASAwards/MedicalSchoolAwards 20160316.xlsx
+++ b/ASAwards/MedicalSchoolAwards 20160316.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="0" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="8480" yWindow="0" windowWidth="26480" windowHeight="12180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2015_Apr" sheetId="1" r:id="rId1"/>
-    <sheet name="2014_Nov" sheetId="2" r:id="rId2"/>
+    <sheet name="Selected" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>Dept</t>
   </si>
@@ -91,9 +90,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>2013 application available http://www.mhs.manchester.ac.uk/media/mhs/mhswebteam/documents/athena-swan/bronze2013.pdf</t>
-  </si>
-  <si>
     <t>University of Oxford, Nuffield Department of Surgical Sciences (NDS)</t>
   </si>
   <si>
@@ -155,13 +151,55 @@
   </si>
   <si>
     <t>Letter of Support from Dean Available: http://blog.soton.ac.uk/athenaswanmedicine/about-us/our-mission/</t>
+  </si>
+  <si>
+    <t>https://www.plymouth.ac.uk/uploads/production/document/path/4/4907/PU_PSMD_AS_Bronze_application_November_2014_web_version.pdf</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Plymouth University – Peninsula Schools of Medicine and Dentistry</t>
+  </si>
+  <si>
+    <t>https://www.plymouth.ac.uk/your-university/about-us/university-structure/faculties/medicine-dentistry/athena-swan-at-pu-psmd</t>
+  </si>
+  <si>
+    <t>http://medhealth.leeds.ac.uk/homepage/516/school_of_medicine-athena_swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leeds – School of Medicine </t>
+  </si>
+  <si>
+    <t>https://www1.imperial.ac.uk/departmentofmedicine/new_dom_life/dom_athena_swan/</t>
+  </si>
+  <si>
+    <t>Imperial College London – Department of Medicine</t>
+  </si>
+  <si>
+    <t>https://www1.imperial.ac.uk/resources/FB2FDB0B-5F2A-48D0-93C8-829254CA6824/departmentofmedicineimperialsilver1.pdf</t>
+  </si>
+  <si>
+    <t>University of Nottingham – School of Medicine</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>https://www.nottingham.ac.uk/medicine/about/athena-swan.aspx</t>
+  </si>
+  <si>
+    <t>2013 application available: http://www.mhs.manchester.ac.uk/media/mhs/mhswebteam/documents/athena-swan/bronze2013.pdf</t>
+  </si>
+  <si>
+    <t>http://medhealth.leeds.ac.uk/info/302/athena_swan/2015/applications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +231,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,22 +256,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -557,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -569,8 +621,8 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="7" width="43.83203125" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
   </cols>
@@ -598,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -688,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18">
@@ -708,16 +760,16 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18">
@@ -737,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -754,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2015</v>
@@ -763,16 +815,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18">
@@ -783,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -792,16 +844,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18">
@@ -812,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2015</v>
@@ -821,16 +873,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
@@ -841,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>2015</v>
@@ -850,16 +902,16 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -870,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>2015</v>
@@ -879,16 +931,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18">
@@ -899,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -908,16 +960,129 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>2014</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -933,23 +1098,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>